--- a/files/colored_sequence_PLOT2.xlsx
+++ b/files/colored_sequence_PLOT2.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,6 +431,11 @@
       <c r="B1" s="1" t="n">
         <v>0.5016319444444445</v>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -441,6 +446,11 @@
       <c r="B2" s="1" t="n">
         <v>0.5027083333333333</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -451,6 +461,11 @@
       <c r="B3" s="1" t="n">
         <v>0.5069212962962963</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -461,6 +476,11 @@
       <c r="B4" s="1" t="n">
         <v>0.5076620370370371</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -471,6 +491,11 @@
       <c r="B5" s="1" t="n">
         <v>0.5142708333333333</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -481,6 +506,11 @@
       <c r="B6" s="1" t="n">
         <v>0.5154745370370371</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -491,6 +521,11 @@
       <c r="B7" s="1" t="n">
         <v>0.5164004629629629</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -501,6 +536,11 @@
       <c r="B8" s="1" t="n">
         <v>0.5200694444444445</v>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -511,6 +551,11 @@
       <c r="B9" s="1" t="n">
         <v>0.5224074074074074</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -521,6 +566,11 @@
       <c r="B10" s="1" t="n">
         <v>0.5234953703703704</v>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -531,6 +581,11 @@
       <c r="B11" s="1" t="n">
         <v>0.524375</v>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -541,6 +596,11 @@
       <c r="B12" s="1" t="n">
         <v>0.5306481481481482</v>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -551,6 +611,11 @@
       <c r="B13" s="1" t="n">
         <v>0.5319560185185185</v>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -561,6 +626,11 @@
       <c r="B14" s="1" t="n">
         <v>0.5330092592592592</v>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -571,6 +641,11 @@
       <c r="B15" s="1" t="n">
         <v>0.5339236111111111</v>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -581,6 +656,11 @@
       <c r="B16" s="1" t="n">
         <v>0.5385532407407407</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -591,6 +671,11 @@
       <c r="B17" s="1" t="n">
         <v>0.5418055555555555</v>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -601,6 +686,11 @@
       <c r="B18" s="1" t="n">
         <v>0.5430324074074074</v>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -611,6 +701,11 @@
       <c r="B19" s="1" t="n">
         <v>0.544212962962963</v>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -621,6 +716,11 @@
       <c r="B20" s="1" t="n">
         <v>0.5503587962962962</v>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -631,6 +731,11 @@
       <c r="B21" s="1" t="n">
         <v>0.5945949074074074</v>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -641,6 +746,11 @@
       <c r="B22" s="1" t="n">
         <v>0.5950462962962964</v>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -651,6 +761,11 @@
       <c r="B23" s="1" t="n">
         <v>0.597025462962963</v>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -661,6 +776,11 @@
       <c r="B24" s="1" t="n">
         <v>0.6007638888888889</v>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -671,6 +791,11 @@
       <c r="B25" s="1" t="n">
         <v>0.6347800925925926</v>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -681,6 +806,11 @@
       <c r="B26" s="1" t="n">
         <v>0.6353935185185186</v>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -691,6 +821,11 @@
       <c r="B27" s="1" t="n">
         <v>0.6371875</v>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -701,6 +836,11 @@
       <c r="B28" s="1" t="n">
         <v>0.6403703703703704</v>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -711,6 +851,11 @@
       <c r="B29" s="1" t="n">
         <v>0.661238425925926</v>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -721,6 +866,11 @@
       <c r="B30" s="1" t="n">
         <v>0.6618055555555555</v>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -731,6 +881,11 @@
       <c r="B31" s="1" t="n">
         <v>0.6628587962962963</v>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -740,6 +895,491 @@
       </c>
       <c r="B32" s="1" t="n">
         <v>0.6684606481481481</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>0.5016319444444445</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>0.5027083333333333</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>0.5069212962962963</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>0.5076620370370371</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>0.5142708333333333</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>0.5154745370370371</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>0.5164004629629629</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>0.5200694444444445</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>0.5224074074074074</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>0.5234953703703704</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>0.524375</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>0.5306481481481482</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>0.5319560185185185</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>0.5330092592592592</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>0.5339236111111111</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>0.5385532407407407</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>0.5418055555555555</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>0.5430324074074074</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>0.544212962962963</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>0.5503587962962962</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>0.5945949074074074</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>0.5950462962962964</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>0.597025462962963</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>0.6007638888888889</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>0.6347800925925926</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>0.6353935185185186</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>0.6371875</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>0.6403703703703704</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>0.661238425925926</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>0.6628587962962963</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>0.6684606481481481</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/files/colored_sequence_PLOT2.xlsx
+++ b/files/colored_sequence_PLOT2.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,11 +909,11 @@
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>0.5016319444444445</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024/09/01</t>
+          <t>2024/08/31</t>
         </is>
       </c>
     </row>
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>0.5027083333333333</v>
+        <v>0.6699537037037037</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024/09/01</t>
+          <t>2024/08/31</t>
         </is>
       </c>
     </row>
@@ -939,11 +939,11 @@
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>0.5069212962962963</v>
+        <v>0.6708333333333333</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024/09/01</t>
+          <t>2024/08/31</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>0.5076620370370371</v>
+        <v>0.4243287037037037</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>0.5142708333333333</v>
+        <v>0.5016319444444445</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>0.5154745370370371</v>
+        <v>0.5027083333333333</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>0.5164004629629629</v>
+        <v>0.5069212962962963</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>0.5200694444444445</v>
+        <v>0.5076620370370371</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>0.5224074074074074</v>
+        <v>0.5142708333333333</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>0.5234953703703704</v>
+        <v>0.5154745370370371</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>0.524375</v>
+        <v>0.5164004629629629</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>0.5306481481481482</v>
+        <v>0.5200694444444445</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>0.5319560185185185</v>
+        <v>0.5224074074074074</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>0.5330092592592592</v>
+        <v>0.5234953703703704</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>0.5339236111111111</v>
+        <v>0.524375</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>0.5385532407407407</v>
+        <v>0.5306481481481482</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>0.5418055555555555</v>
+        <v>0.5319560185185185</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>0.5430324074074074</v>
+        <v>0.5330092592592592</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>0.544212962962963</v>
+        <v>0.5339236111111111</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>0.5503587962962962</v>
+        <v>0.5385532407407407</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>0.5945949074074074</v>
+        <v>0.5418055555555555</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>0.5950462962962964</v>
+        <v>0.5430324074074074</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>0.597025462962963</v>
+        <v>0.544212962962963</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>0.6007638888888889</v>
+        <v>0.5503587962962962</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>0.6347800925925926</v>
+        <v>0.5945949074074074</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>0.6353935185185186</v>
+        <v>0.5950462962962964</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>0.6371875</v>
+        <v>0.597025462962963</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>0.6403703703703704</v>
+        <v>0.6007638888888889</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>0.661238425925926</v>
+        <v>0.6347800925925926</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>0.6618055555555555</v>
+        <v>0.6353935185185186</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>0.6628587962962963</v>
+        <v>0.6371875</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1374,9 +1374,69 @@
         </is>
       </c>
       <c r="B64" s="1" t="n">
+        <v>0.6403703703703704</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>巻_1</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>0.661238425925926</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>巻_2</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>切_1</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>0.6628587962962963</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2024/09/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>切_2-1</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
         <v>0.6684606481481481</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>2024/09/01</t>
         </is>
